--- a/news_database/clipping-palabras-clave.xlsx
+++ b/news_database/clipping-palabras-clave.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\francisco\Documents\Jhosimar\Github\teaching\Private\Diana2\Scraping noticias\news_scraper_sql_filter_keywords_categories\news_scraper\database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rebec\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27635349-7DE1-46F4-BDD1-CD51849F4595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5730"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="294">
   <si>
     <t>Institucional</t>
   </si>
@@ -73,15 +63,9 @@
     <t>UniOvi</t>
   </si>
   <si>
-    <t xml:space="preserve">EPI Gijón </t>
-  </si>
-  <si>
     <t>Escuela Politécnica de Ingeniería de Gijón</t>
   </si>
   <si>
-    <t xml:space="preserve">Escuela Politécnica de Ingeniería </t>
-  </si>
-  <si>
     <t>Escuela Politécnica de Mieres</t>
   </si>
   <si>
@@ -91,66 +75,6 @@
     <t>Facultad de Comercio, Turismo y Ciencias Sociales Jovellanos</t>
   </si>
   <si>
-    <t>Vicerrectorado de Investigación</t>
-  </si>
-  <si>
-    <t>Irene Díaz</t>
-  </si>
-  <si>
-    <t>Pedro Alonso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vicerrectorado de Profesorado </t>
-  </si>
-  <si>
-    <t>Vicerrectorado de Extensión</t>
-  </si>
-  <si>
-    <t>Vicerrectorado de Estudiantes</t>
-  </si>
-  <si>
-    <t>Vicerrectorado de Transferencia</t>
-  </si>
-  <si>
-    <t>Susana Luque</t>
-  </si>
-  <si>
-    <t>Vicerrectorado de Sostenibilidad</t>
-  </si>
-  <si>
-    <t>Inés Peñuelas</t>
-  </si>
-  <si>
-    <t>Vicerrectorado de Estudios</t>
-  </si>
-  <si>
-    <t>Juan Manuel Marchante</t>
-  </si>
-  <si>
-    <t>Vicerrectorado de Docencia</t>
-  </si>
-  <si>
-    <t>Vicerrectorado de Planificación</t>
-  </si>
-  <si>
-    <t>Juan Carlos San Pedro</t>
-  </si>
-  <si>
-    <t>Vicerrectorado de Internacionalización</t>
-  </si>
-  <si>
-    <t>Ana Suárez</t>
-  </si>
-  <si>
-    <t>Marce Fernández Raigoso</t>
-  </si>
-  <si>
-    <t>Daniel Santos</t>
-  </si>
-  <si>
-    <t>Cristina Valdés</t>
-  </si>
-  <si>
     <t>Campus de El Milán</t>
   </si>
   <si>
@@ -175,9 +99,6 @@
     <t>CSU Avilés</t>
   </si>
   <si>
-    <t>Casa de la Buelga</t>
-  </si>
-  <si>
     <t>Instituto de Ciencias y Tecnologías Espaciales de Asturias o ICTEA</t>
   </si>
   <si>
@@ -190,9 +111,6 @@
     <t>Instituto Universitario de Biotecnología de Asturias o IUBA</t>
   </si>
   <si>
-    <t>Instituto Universitario de Oncología o IUOPA</t>
-  </si>
-  <si>
     <t>Instituto Mixto de Investigación en Biodiversidad o IMIB</t>
   </si>
   <si>
@@ -202,15 +120,9 @@
     <t>Inés Suárez + Politécnica</t>
   </si>
   <si>
-    <t>Ángel Martín + Mieres</t>
-  </si>
-  <si>
     <t>Levi Pérez + Jovellanos</t>
   </si>
   <si>
-    <t xml:space="preserve">Celestino Rodríguez + Educación </t>
-  </si>
-  <si>
     <t>José Antonio Vega + Medicina</t>
   </si>
   <si>
@@ -223,9 +135,6 @@
     <t>Francisco Martín + Humanidades</t>
   </si>
   <si>
-    <t>Susana Fernández + Químca</t>
-  </si>
-  <si>
     <t>José Carlos Núñez + Psicología</t>
   </si>
   <si>
@@ -253,24 +162,12 @@
     <t>Innovación Gijón</t>
   </si>
   <si>
-    <t>Investigador Ramón y Cajal</t>
-  </si>
-  <si>
-    <t>Investigador Severo Ochoa</t>
-  </si>
-  <si>
     <t>Sector Universidad</t>
   </si>
   <si>
     <t>Consejería de Ciencia, Innovación y Universidad</t>
   </si>
   <si>
-    <t>Cristina González + Universidad</t>
-  </si>
-  <si>
-    <t>Ministerio de Universidades</t>
-  </si>
-  <si>
     <t>Ley de Ordenación del Sistema Universitario</t>
   </si>
   <si>
@@ -280,36 +177,15 @@
     <t>Consejo Social de la Universidad de Oviedo</t>
   </si>
   <si>
-    <t>Curtidora</t>
-  </si>
-  <si>
     <t>Cátedra + Universidad de Oviedo</t>
   </si>
   <si>
-    <t>Plexigrid</t>
-  </si>
-  <si>
-    <t>Platelet</t>
-  </si>
-  <si>
     <t>Spin-off + Universidad de Oviedo</t>
   </si>
   <si>
-    <t>Catedrátic + Universidad de Oviedo</t>
-  </si>
-  <si>
     <t>Profesor + Universidad de Oviedo</t>
   </si>
   <si>
-    <t>Investigador + Universidad de oviedo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pilar García </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alfonso López </t>
-  </si>
-  <si>
     <t>Cátedra ACCENTURE de Inteligencia Analítica Avanzada</t>
   </si>
   <si>
@@ -325,9 +201,6 @@
     <t>Cátedra CAJA RURAL de ASTURIAS de Industrias y Procesos Agroalimentarios</t>
   </si>
   <si>
-    <t>Cátedra CAPGEMINI para la Transformación Digital Sostenible</t>
-  </si>
-  <si>
     <t>Cátedra CASTROALONSO de Ciberseguridad y entorno digital</t>
   </si>
   <si>
@@ -337,9 +210,6 @@
     <t>Cátedra CONCEPCIÓN ARENAL de Agenda 2030</t>
   </si>
   <si>
-    <t>Cátedra de Capacitación e Inmersión en Desarrollo Sostenible</t>
-  </si>
-  <si>
     <t>Cátedra CTIC para la Transformación Digital</t>
   </si>
   <si>
@@ -367,15 +237,9 @@
     <t>Cátedra INCIBE de Ciberseguridad</t>
   </si>
   <si>
-    <t>Cátedra INDRA</t>
-  </si>
-  <si>
     <t>Cátedra Institucional de Municipalismo</t>
   </si>
   <si>
-    <t>Cátedra de Innovación Social: Los Retos Sociales del Bienestar</t>
-  </si>
-  <si>
     <t>Cátedra MBA Institute de Investigación Médica y Biomecánica</t>
   </si>
   <si>
@@ -397,27 +261,15 @@
     <t>Cátedra de Movilidad TK ELEVATOR</t>
   </si>
   <si>
-    <t>Cátedra ONTIER de Redes Empresariales entre Asturias y Latinoamérica</t>
-  </si>
-  <si>
     <t>Cátedra PASEK Smart 20</t>
   </si>
   <si>
-    <t>Cátedra de Redes de nueva Generación R CABLE Y TELECABLE Comunicaciones</t>
-  </si>
-  <si>
     <t>Cátedra R3 PWM de Inversiones Financieras</t>
   </si>
   <si>
-    <t>Cátedra RAFAEL DEL RIEGO de Buen Gobierno</t>
-  </si>
-  <si>
     <t>Cátedra SABADELL de Financias Sostenibles</t>
   </si>
   <si>
-    <t>Cátedra SERESCO SAGE de Nuevos modelos de negocio basados en las Tecnologías de la Información</t>
-  </si>
-  <si>
     <t>Cátedra de la SIDRA de Asturias</t>
   </si>
   <si>
@@ -430,48 +282,18 @@
     <t>Cátedra VACIERO de Transformación Empresarial y su marco jurídico-financiero</t>
   </si>
   <si>
-    <t xml:space="preserve">Cátedra Leonard Cohen </t>
-  </si>
-  <si>
     <t>Cátedra Emilio Alarcos</t>
   </si>
   <si>
     <t>Cátedra Ángel González</t>
   </si>
   <si>
-    <t>Servicio de Publicaciones</t>
-  </si>
-  <si>
     <t>uniovi etech racing</t>
   </si>
   <si>
     <t>wolfast uniovi</t>
   </si>
   <si>
-    <t>BME Center</t>
-  </si>
-  <si>
-    <t>Instituto Oftalmológico Fernández Vega</t>
-  </si>
-  <si>
-    <t>Centro de Inteligencia Artificial</t>
-  </si>
-  <si>
-    <t>Supercomputación científica</t>
-  </si>
-  <si>
-    <t>IUQOM Enrique Moles</t>
-  </si>
-  <si>
-    <t>Ceisia</t>
-  </si>
-  <si>
-    <t>CeCodet</t>
-  </si>
-  <si>
-    <t>RegioLab</t>
-  </si>
-  <si>
     <t>PUMUO o Programa Universitario para Mayores de la Universidad de Oviedo</t>
   </si>
   <si>
@@ -481,12 +303,6 @@
     <t>Cátedra de TURISMO OVIEDO ORIGEN DEL CAMINO</t>
   </si>
   <si>
-    <t>Diana Morant + Universidad</t>
-  </si>
-  <si>
-    <t>Borja Sánchez + Universidad</t>
-  </si>
-  <si>
     <t>Cátedra CAMBIO CLIMÁTICO + Universidad de Oviedo</t>
   </si>
   <si>
@@ -556,9 +372,6 @@
     <t>Facultad de Química de Oviedo</t>
   </si>
   <si>
-    <t xml:space="preserve">Campus de Mieres </t>
-  </si>
-  <si>
     <t>Facultad de Medicina y Ciencias de la Salud de Oviedo</t>
   </si>
   <si>
@@ -575,13 +388,532 @@
   </si>
   <si>
     <t>Universidá d'Uviéu</t>
+  </si>
+  <si>
+    <t>Platelet + Universidad de Oviedo</t>
+  </si>
+  <si>
+    <t>Instituto Universitario de Oncología del Principado de Asturias o IUOPA</t>
+  </si>
+  <si>
+    <t>BME Center + Centro de Ingeniería Biomédica de la Universidad de Oviedo</t>
+  </si>
+  <si>
+    <t>Cátedra INDRA + Universidad de Oviedo</t>
+  </si>
+  <si>
+    <t>Servicio de Publicaciones + Universidad de Oviedo</t>
+  </si>
+  <si>
+    <t>Ministerio de Universidades + Oviedo</t>
+  </si>
+  <si>
+    <t>Vicerrectorado de Investigación + Universidad de Oviedo</t>
+  </si>
+  <si>
+    <t>Vicerrectorado de Profesorado + Universidad de Oviedo</t>
+  </si>
+  <si>
+    <t>Vicerrectorado de Extensión + Universidad de Oviedo</t>
+  </si>
+  <si>
+    <t>Vicerrectorado de Estudiantes + Universidad de Oviedo</t>
+  </si>
+  <si>
+    <t>Vicerrectorado de Transferencia + Universidad de Oviedo</t>
+  </si>
+  <si>
+    <t>Vicerrectorado de Sostenibilidad + Universidad de Oviedo</t>
+  </si>
+  <si>
+    <t>Vicerrectorado de Estudios + Universidad de Oviedo</t>
+  </si>
+  <si>
+    <t>Vicerrectorado de Docencia + Universidad de Oviedo</t>
+  </si>
+  <si>
+    <t>Vicerrectorado de Planificación + Universidad de Oviedo</t>
+  </si>
+  <si>
+    <t>Vicerrectorado de Internacionalización + Universidad de Oviedo</t>
+  </si>
+  <si>
+    <t>Curtidora + Universidad de Oviedo</t>
+  </si>
+  <si>
+    <t>Curtidora + UniOvi</t>
+  </si>
+  <si>
+    <t>Borja Sánchez + Universidad de Oviedo</t>
+  </si>
+  <si>
+    <t>Cristina González + Universidad de Oviedo</t>
+  </si>
+  <si>
+    <t>Diana Morant + Universidad de Oviedo</t>
+  </si>
+  <si>
+    <t>Catedrático + Universidad de Oviedo</t>
+  </si>
+  <si>
+    <t>Investigación Gijón</t>
+  </si>
+  <si>
+    <t>Ramón y Cajal + Universidad de Oviedo</t>
+  </si>
+  <si>
+    <t>Severo Ochoa + Universidad de Oviedo</t>
+  </si>
+  <si>
+    <t>Instituto Oftalmológico Fernández Vega + Universidad de Oviedo</t>
+  </si>
+  <si>
+    <t>Centro de Inteligencia Artificial + Universidad de Oviedo</t>
+  </si>
+  <si>
+    <t>Supercomputación científica + Universidad de Oviedo</t>
+  </si>
+  <si>
+    <t>Ceisia o Centro de Estudios sobre el Impacto Social de la Inteligencia Artificial</t>
+  </si>
+  <si>
+    <t>IUQOM Enrique Moles o Instituto Universitario de Química Organometálica Enrique Moles</t>
+  </si>
+  <si>
+    <t>CeCodet o Centro de Cooperación y Desarrollo Territorial</t>
+  </si>
+  <si>
+    <t>RegioLab o Laboratorio de Análisis Económico Regional</t>
+  </si>
+  <si>
+    <t>Inés Suárez + Universidad de Oviedo</t>
+  </si>
+  <si>
+    <t>Inés Suárez + EPI</t>
+  </si>
+  <si>
+    <t>Rubén González + Universidad de Oviedo</t>
+  </si>
+  <si>
+    <t>Rubén González + EPI</t>
+  </si>
+  <si>
+    <t>Ángel Martín + Campus de Mieres</t>
+  </si>
+  <si>
+    <t>Ángel Martín + Universidad de Oviedo</t>
+  </si>
+  <si>
+    <t>Levi Pérez + Universidad de Oviedo</t>
+  </si>
+  <si>
+    <t>Celestino Rodríguez + Universidad de Oviedo</t>
+  </si>
+  <si>
+    <t>José Antonio Vega + Universidad de Oviedo</t>
+  </si>
+  <si>
+    <t>Jose Manuel Rico + Universidad de Oviedo</t>
+  </si>
+  <si>
+    <t>Carmen Benavides + Universidad de Oviedo</t>
+  </si>
+  <si>
+    <t>Francisco Martín + Universidad de Oviedo</t>
+  </si>
+  <si>
+    <t>Susana Fernández + Universidad de Oviedo</t>
+  </si>
+  <si>
+    <t>José Carlos Núñez + Universidad de Oviedo</t>
+  </si>
+  <si>
+    <t>Carlos López + Universidad de Oviedo</t>
+  </si>
+  <si>
+    <t>José Manuel Noriega + Universidad de Oviedo</t>
+  </si>
+  <si>
+    <t>Javier Fernández Teruelo + Universidad de Oviedo</t>
+  </si>
+  <si>
+    <t>Irene Díaz + Universidad de Oviedo</t>
+  </si>
+  <si>
+    <t>Pedro Alonso + Universidad de Oviedo</t>
+  </si>
+  <si>
+    <t>Pilar García + Universidad de Oviedo</t>
+  </si>
+  <si>
+    <t>Alfonso López + Universidad de Oviedo</t>
+  </si>
+  <si>
+    <t>Susana Luque + Universidad de Oviedo</t>
+  </si>
+  <si>
+    <t>Inés Peñuelas + Universidad de Oviedo</t>
+  </si>
+  <si>
+    <t>Juan Manuel Marchante + Universidad de Oviedo</t>
+  </si>
+  <si>
+    <t>Juan Carlos San Pedro + Universidad de Oviedo</t>
+  </si>
+  <si>
+    <t>Ana Suárez + Universidad de Oviedo</t>
+  </si>
+  <si>
+    <t>Marce Fernández Raigoso + Universidad de Oviedo</t>
+  </si>
+  <si>
+    <t>Daniel Santos + Universidad de Oviedo</t>
+  </si>
+  <si>
+    <t>Cristina Valdés + Universidad de Oviedo</t>
+  </si>
+  <si>
+    <t>Plexigrid + Universidad de Oviedo</t>
+  </si>
+  <si>
+    <t>Cátedra CAPGEMINI para la Transformación Digital Sostenible + Universidad de Oviedo</t>
+  </si>
+  <si>
+    <t>Cátedra de Capacitación e Inmersión en Desarrollo Sostenible o CIDES</t>
+  </si>
+  <si>
+    <t>DXC Technology Cátedra</t>
+  </si>
+  <si>
+    <t>Cátedra Retos de Innovación y Bienestar Social</t>
+  </si>
+  <si>
+    <t>Cátedra MBA Institute</t>
+  </si>
+  <si>
+    <t>Cátedra Banco Sabadell de Finanzas Sostenibles</t>
+  </si>
+  <si>
+    <t>Cátedra SERESCO SAGE</t>
+  </si>
+  <si>
+    <t>Cátedra Movilidad ThyssenKrupp Elevator</t>
+  </si>
+  <si>
+    <t>Cátedra TK Elevator</t>
+  </si>
+  <si>
+    <t>Cátedra de Redes de nueva Generación</t>
+  </si>
+  <si>
+    <t>Cátedra Telecable</t>
+  </si>
+  <si>
+    <t>Cátedra Ontier de Redes Empresariales</t>
+  </si>
+  <si>
+    <t>Cátedra Ontier Asturias Latinoamérica</t>
+  </si>
+  <si>
+    <t>Cátedra RAFAEL DEL RIEGO</t>
+  </si>
+  <si>
+    <t>Celestino Rodríguez + Educación</t>
+  </si>
+  <si>
+    <t>Campus de Mieres</t>
+  </si>
+  <si>
+    <t>Cátedra Leonard Cohen</t>
+  </si>
+  <si>
+    <t>EPI Gijón</t>
+  </si>
+  <si>
+    <t>Escuela Politécnica de Ingeniería</t>
+  </si>
+  <si>
+    <t>Susana Fernández + Química</t>
+  </si>
+  <si>
+    <t>Cátedra Plexigrid</t>
+  </si>
+  <si>
+    <t>Vicerrectorado de Investigación + Universidá d'Uviéu</t>
+  </si>
+  <si>
+    <t>Irene Díaz + Universidá d'Uviéu</t>
+  </si>
+  <si>
+    <t>Vicerrectorado de Profesorado + Universidá d'Uviéu</t>
+  </si>
+  <si>
+    <t>Pedro Alonso + Universidá d'Uviéu</t>
+  </si>
+  <si>
+    <t>Vicerrectorado de Extensión + Universidá d'Uviéu</t>
+  </si>
+  <si>
+    <t>Pilar García + Universidá d'Uviéu</t>
+  </si>
+  <si>
+    <t>Vicerrectorado de Estudiantes + Universidá d'Uviéu</t>
+  </si>
+  <si>
+    <t>Alfonso López + Universidá d'Uviéu</t>
+  </si>
+  <si>
+    <t>Vicerrectorado de Transferencia + Universidá d'Uviéu</t>
+  </si>
+  <si>
+    <t>Susana Luque + Universidá d'Uviéu</t>
+  </si>
+  <si>
+    <t>Vicerrectorado de Sostenibilidad + Universidá d'Uviéu</t>
+  </si>
+  <si>
+    <t>Inés Peñuelas + Universidá d'Uviéu</t>
+  </si>
+  <si>
+    <t>Vicerrectorado de Estudios + Universidá d'Uviéu</t>
+  </si>
+  <si>
+    <t>Juan Manuel Marchante + Universidá d'Uviéu</t>
+  </si>
+  <si>
+    <t>Vicerrectorado de Docencia + Universidá d'Uviéu</t>
+  </si>
+  <si>
+    <t>Vicerrectorado de Planificación + Universidá d'Uviéu</t>
+  </si>
+  <si>
+    <t>Juan Carlos San Pedro + Universidá d'Uviéu</t>
+  </si>
+  <si>
+    <t>Vicerrectorado de Internacionalización + Universidá d'Uviéu</t>
+  </si>
+  <si>
+    <t>Ana Suárez + Universidá d'Uviéu</t>
+  </si>
+  <si>
+    <t>Marce Fernández Raigoso + Universidá d'Uviéu</t>
+  </si>
+  <si>
+    <t>Daniel Santos + Universidá d'Uviéu</t>
+  </si>
+  <si>
+    <t>Cristina Valdés + Universidá d'Uviéu</t>
+  </si>
+  <si>
+    <t>Inés Suárez + Universidá d'Uviéu</t>
+  </si>
+  <si>
+    <t>Rubén González + Universidá d'Uviéu</t>
+  </si>
+  <si>
+    <t>Ángel Martín + Universidá d'Uviéu</t>
+  </si>
+  <si>
+    <t>Levi Pérez + Universidá d'Uviéu</t>
+  </si>
+  <si>
+    <t>Celestino Rodríguez + Universidá d'Uviéu</t>
+  </si>
+  <si>
+    <t>José Antonio Vega + Universidá d'Uviéu</t>
+  </si>
+  <si>
+    <t>Jose Manuel Rico + Universidá d'Uviéu</t>
+  </si>
+  <si>
+    <t>Carmen Benavides + Universidá d'Uviéu</t>
+  </si>
+  <si>
+    <t>Francisco Martín + Universidá d'Uviéu</t>
+  </si>
+  <si>
+    <t>Susana Fernández + Universidá d'Uviéu</t>
+  </si>
+  <si>
+    <t>José Carlos Núñez + Universidá d'Uviéu</t>
+  </si>
+  <si>
+    <t>Carlos López + Universidá d'Uviéu</t>
+  </si>
+  <si>
+    <t>José Manuel Noriega + Universidá d'Uviéu</t>
+  </si>
+  <si>
+    <t>Javier Fernández Teruelo + Universidá d'Uviéu</t>
+  </si>
+  <si>
+    <t>Ramón y Cajal + Universidá d'Uviéu</t>
+  </si>
+  <si>
+    <t>Severo Ochoa + Universidá d'Uviéu</t>
+  </si>
+  <si>
+    <t>Instituto Oftalmológico Fernández Vega + Universidá d'Uviéu</t>
+  </si>
+  <si>
+    <t>Centro de Inteligencia Artificial + Universidá d'Uviéu</t>
+  </si>
+  <si>
+    <t>Supercomputación científica + Universidá d'Uviéu</t>
+  </si>
+  <si>
+    <t>Curtidora + Universidá d'Uviéu</t>
+  </si>
+  <si>
+    <t>Servicio de Publicaciones + Universidá d'Uviéu</t>
+  </si>
+  <si>
+    <t>Servicio de Publicaciones + UniOvi</t>
+  </si>
+  <si>
+    <t>Cátedra ENIA Inteligencia Artificial SATEC + Universidá d'Uviéu</t>
+  </si>
+  <si>
+    <t>Cátedra CAMBIO CLIMÁTICO + Universidá d'Uviéu</t>
+  </si>
+  <si>
+    <t>Cátedra + Universidá d'Uviéu</t>
+  </si>
+  <si>
+    <t>Plexigrid + Universidá d'Uviéu</t>
+  </si>
+  <si>
+    <t>Platelet + Universidá d'Uviéu</t>
+  </si>
+  <si>
+    <t>Spin-off + Universidá d'Uviéu</t>
+  </si>
+  <si>
+    <t>Cátedra ENIA Inteligencia Artificial SATEC + UniOvi</t>
+  </si>
+  <si>
+    <t>Cátedra CAMBIO CLIMÁTICO + UniOvi</t>
+  </si>
+  <si>
+    <t>Cátedra + UniOvi</t>
+  </si>
+  <si>
+    <t>Plexigrid + UniOvi</t>
+  </si>
+  <si>
+    <t>Platelet + UniOvi</t>
+  </si>
+  <si>
+    <t>Spin-off + UniOvi</t>
+  </si>
+  <si>
+    <t>Borja Sánchez + UniOvi</t>
+  </si>
+  <si>
+    <t>Cristina González + UniOvi</t>
+  </si>
+  <si>
+    <t>Diana Morant + UniOvi</t>
+  </si>
+  <si>
+    <t>Borja Sánchez + Universidá d'Uviéu</t>
+  </si>
+  <si>
+    <t>Cristina González + Universidá d'Uviéu</t>
+  </si>
+  <si>
+    <t>Diana Morant + Universidá d'Uviéu</t>
+  </si>
+  <si>
+    <t>Ramón y Cajal + UniOvi</t>
+  </si>
+  <si>
+    <t>Severo Ochoa + UniOvi</t>
+  </si>
+  <si>
+    <t>Supercomputación científica + UniOvi</t>
+  </si>
+  <si>
+    <t>Instituto Oftalmológico Fernández Vega + UniOvi</t>
+  </si>
+  <si>
+    <t>Centro de Inteligencia Artificial + UniOvi</t>
+  </si>
+  <si>
+    <t>Inés Suárez + UniOvi</t>
+  </si>
+  <si>
+    <t>Rubén González + UniOvi</t>
+  </si>
+  <si>
+    <t>Ángel Martín + UniOvi</t>
+  </si>
+  <si>
+    <t>Levi Pérez + UniOvi</t>
+  </si>
+  <si>
+    <t>Celestino Rodríguez + UniOvi</t>
+  </si>
+  <si>
+    <t>José Antonio Vega + UniOvi</t>
+  </si>
+  <si>
+    <t>Jose Manuel Rico + UniOvi</t>
+  </si>
+  <si>
+    <t>Carmen Benavides + UniOvi</t>
+  </si>
+  <si>
+    <t>Francisco Martín + UniOvi</t>
+  </si>
+  <si>
+    <t>Susana Fernández + UniOvi</t>
+  </si>
+  <si>
+    <t>José Carlos Núñez + UniOvi</t>
+  </si>
+  <si>
+    <t>Carlos López + UniOvi</t>
+  </si>
+  <si>
+    <t>José Manuel Noriega + UniOvi</t>
+  </si>
+  <si>
+    <t>Javier Fernández Teruelo + UniOvi</t>
+  </si>
+  <si>
+    <t>Profesor + UniOvi</t>
+  </si>
+  <si>
+    <t>Investigador + UniOvi</t>
+  </si>
+  <si>
+    <t>Catedrático + UniOvi</t>
+  </si>
+  <si>
+    <t>Investigador + Universidad de Oviedo</t>
+  </si>
+  <si>
+    <t>Profesor + Universidá d'Uviéu</t>
+  </si>
+  <si>
+    <t>Investigador + Universidá d'Uviéu</t>
+  </si>
+  <si>
+    <t>Catedrático + Universidá d'Uviéu</t>
+  </si>
+  <si>
+    <t>Cátedra INDRA + UnOvi</t>
+  </si>
+  <si>
+    <t>Cátedra INDRA + Universidá d'Uviéu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -945,27 +1277,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I58"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="B17" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.875" customWidth="1"/>
-    <col min="2" max="2" width="79.875" customWidth="1"/>
-    <col min="3" max="3" width="76.625" customWidth="1"/>
-    <col min="4" max="4" width="34.25" customWidth="1"/>
-    <col min="5" max="5" width="38.375" customWidth="1"/>
-    <col min="6" max="6" width="80.125" customWidth="1"/>
-    <col min="7" max="7" width="26.875" customWidth="1"/>
-    <col min="8" max="8" width="20.625" customWidth="1"/>
-    <col min="9" max="9" width="51.75" customWidth="1"/>
+    <col min="1" max="1" width="53" customWidth="1"/>
+    <col min="2" max="2" width="79.85546875" customWidth="1"/>
+    <col min="3" max="3" width="76.5703125" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" customWidth="1"/>
+    <col min="5" max="5" width="72.5703125" customWidth="1"/>
+    <col min="6" max="6" width="80.140625" customWidth="1"/>
+    <col min="7" max="7" width="52.28515625" customWidth="1"/>
+    <col min="8" max="8" width="30" customWidth="1"/>
+    <col min="9" max="9" width="51.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -991,646 +1323,1079 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>200</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="E2" t="s">
-        <v>145</v>
+        <v>89</v>
       </c>
       <c r="F2" t="s">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="H2" t="s">
         <v>11</v>
       </c>
       <c r="I2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>179</v>
+        <v>120</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>88</v>
+        <v>288</v>
       </c>
       <c r="E3" t="s">
-        <v>135</v>
+        <v>87</v>
       </c>
       <c r="F3" t="s">
-        <v>83</v>
+        <v>182</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>199</v>
       </c>
       <c r="H3" t="s">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="I3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>201</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>86</v>
+        <v>142</v>
       </c>
       <c r="E4" t="s">
-        <v>136</v>
+        <v>88</v>
       </c>
       <c r="F4" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="G4" t="s">
-        <v>131</v>
+        <v>85</v>
+      </c>
+      <c r="H4" t="s">
+        <v>138</v>
       </c>
       <c r="I4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>285</v>
       </c>
       <c r="F5" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="G5" t="s">
-        <v>132</v>
+        <v>86</v>
+      </c>
+      <c r="H5" t="s">
+        <v>245</v>
       </c>
       <c r="I5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
       <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" t="s">
+        <v>286</v>
+      </c>
+      <c r="F6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>170</v>
+      </c>
+      <c r="B8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" t="s">
+        <v>289</v>
+      </c>
+      <c r="F8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" t="s">
+        <v>246</v>
+      </c>
+      <c r="I8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" t="s">
+        <v>290</v>
+      </c>
+      <c r="F9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" t="s">
+        <v>247</v>
+      </c>
+      <c r="I9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>171</v>
+      </c>
+      <c r="B10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" t="s">
+        <v>143</v>
+      </c>
+      <c r="D10" t="s">
+        <v>291</v>
+      </c>
+      <c r="F10" t="s">
+        <v>56</v>
+      </c>
+      <c r="I10" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>129</v>
+      </c>
+      <c r="B11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I11" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>172</v>
+      </c>
+      <c r="B12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>92</v>
+      </c>
+      <c r="I12" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>130</v>
+      </c>
+      <c r="B13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>183</v>
+      </c>
+      <c r="I13" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>173</v>
+      </c>
+      <c r="B14" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14" t="s">
+        <v>144</v>
+      </c>
+      <c r="F14" t="s">
+        <v>58</v>
+      </c>
+      <c r="I14" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>131</v>
+      </c>
+      <c r="B15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15" t="s">
+        <v>145</v>
+      </c>
+      <c r="F15" t="s">
+        <v>59</v>
+      </c>
+      <c r="I15" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>174</v>
+      </c>
+      <c r="B16" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" t="s">
+        <v>123</v>
+      </c>
+      <c r="F16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C17" t="s">
+        <v>146</v>
+      </c>
+      <c r="F17" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>175</v>
+      </c>
+      <c r="B18" t="s">
+        <v>103</v>
+      </c>
+      <c r="C18" t="s">
+        <v>147</v>
+      </c>
+      <c r="F18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>133</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" t="s">
+        <v>148</v>
+      </c>
+      <c r="F19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>176</v>
+      </c>
+      <c r="B20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" t="s">
+        <v>150</v>
+      </c>
+      <c r="F20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>134</v>
+      </c>
+      <c r="B21" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" t="s">
+        <v>149</v>
+      </c>
+      <c r="F21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>135</v>
+      </c>
+      <c r="B22" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" t="s">
+        <v>151</v>
+      </c>
+      <c r="F22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>177</v>
+      </c>
+      <c r="B23" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23" t="s">
+        <v>152</v>
+      </c>
+      <c r="F23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>136</v>
+      </c>
+      <c r="B24" t="s">
+        <v>108</v>
+      </c>
+      <c r="C24" t="s">
+        <v>240</v>
+      </c>
+      <c r="F24" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>178</v>
+      </c>
+      <c r="B25" t="s">
+        <v>106</v>
+      </c>
+      <c r="C25" t="s">
+        <v>241</v>
+      </c>
+      <c r="F25" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>179</v>
+      </c>
+      <c r="B26" t="s">
+        <v>109</v>
+      </c>
+      <c r="C26" t="s">
+        <v>244</v>
+      </c>
+      <c r="F26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>180</v>
+      </c>
+      <c r="B27" t="s">
+        <v>111</v>
+      </c>
+      <c r="C27" t="s">
+        <v>242</v>
+      </c>
+      <c r="F27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>181</v>
+      </c>
+      <c r="B28" t="s">
+        <v>110</v>
+      </c>
+      <c r="C28" t="s">
+        <v>243</v>
+      </c>
+      <c r="F28" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>204</v>
+      </c>
+      <c r="B29" t="s">
+        <v>108</v>
+      </c>
+      <c r="C29" t="s">
+        <v>266</v>
+      </c>
+      <c r="F29" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>205</v>
+      </c>
+      <c r="B30" t="s">
+        <v>119</v>
+      </c>
+      <c r="C30" t="s">
+        <v>267</v>
+      </c>
+      <c r="F30" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>206</v>
+      </c>
+      <c r="B31" t="s">
+        <v>112</v>
+      </c>
+      <c r="C31" t="s">
+        <v>268</v>
+      </c>
+      <c r="F31" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>207</v>
+      </c>
+      <c r="B32" t="s">
+        <v>116</v>
+      </c>
+      <c r="C32" t="s">
+        <v>269</v>
+      </c>
+      <c r="F32" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>208</v>
+      </c>
+      <c r="B33" t="s">
+        <v>115</v>
+      </c>
+      <c r="C33" t="s">
+        <v>270</v>
+      </c>
+      <c r="F33" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>209</v>
+      </c>
+      <c r="B34" t="s">
+        <v>113</v>
+      </c>
+      <c r="F34" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>210</v>
+      </c>
+      <c r="B35" t="s">
+        <v>114</v>
+      </c>
+      <c r="F35" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>211</v>
+      </c>
+      <c r="B36" t="s">
+        <v>198</v>
+      </c>
+      <c r="F36" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>212</v>
+      </c>
+      <c r="B37" t="s">
         <v>16</v>
       </c>
-      <c r="C6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="F37" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>213</v>
+      </c>
+      <c r="B38" t="s">
+        <v>17</v>
+      </c>
+      <c r="F38" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>214</v>
+      </c>
+      <c r="B39" t="s">
+        <v>18</v>
+      </c>
+      <c r="F39" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>215</v>
+      </c>
+      <c r="B40" t="s">
+        <v>19</v>
+      </c>
+      <c r="F40" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>216</v>
+      </c>
+      <c r="B41" t="s">
+        <v>20</v>
+      </c>
+      <c r="F41" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>217</v>
+      </c>
+      <c r="B42" t="s">
+        <v>21</v>
+      </c>
+      <c r="F42" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>218</v>
+      </c>
+      <c r="B43" t="s">
+        <v>22</v>
+      </c>
+      <c r="F43" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>219</v>
+      </c>
+      <c r="B44" t="s">
+        <v>23</v>
+      </c>
+      <c r="F44" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>220</v>
+      </c>
+      <c r="B45" t="s">
+        <v>30</v>
+      </c>
+      <c r="F45" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>221</v>
+      </c>
+      <c r="B46" t="s">
+        <v>29</v>
+      </c>
+      <c r="F46" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>222</v>
+      </c>
+      <c r="B47" t="s">
+        <v>157</v>
+      </c>
+      <c r="F47" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>223</v>
+      </c>
+      <c r="B48" t="s">
+        <v>31</v>
+      </c>
+      <c r="F48" t="s">
         <v>91</v>
       </c>
-      <c r="G6" t="s">
-        <v>133</v>
-      </c>
-      <c r="I6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>177</v>
-      </c>
-      <c r="C7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F7" t="s">
-        <v>146</v>
-      </c>
-      <c r="G7" t="s">
-        <v>134</v>
-      </c>
-      <c r="I7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" t="s">
-        <v>176</v>
-      </c>
-      <c r="C8" t="s">
-        <v>67</v>
-      </c>
-      <c r="F8" t="s">
-        <v>92</v>
-      </c>
-      <c r="I8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>224</v>
+      </c>
+      <c r="B49" t="s">
+        <v>197</v>
+      </c>
+      <c r="F49" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>225</v>
+      </c>
+      <c r="B50" t="s">
+        <v>32</v>
+      </c>
+      <c r="F50" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>33</v>
+      </c>
+      <c r="F51" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>34</v>
+      </c>
+      <c r="F52" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>35</v>
+      </c>
+      <c r="F53" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>202</v>
+      </c>
+      <c r="F54" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>36</v>
+      </c>
+      <c r="F55" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>37</v>
+      </c>
+      <c r="F56" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>38</v>
+      </c>
+      <c r="F57" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>39</v>
+      </c>
+      <c r="F58" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>153</v>
+      </c>
+      <c r="F59" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>154</v>
+      </c>
+      <c r="F60" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
         <v>155</v>
       </c>
-      <c r="C9" t="s">
-        <v>68</v>
-      </c>
-      <c r="F9" t="s">
-        <v>93</v>
-      </c>
-      <c r="I9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="F61" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
         <v>156</v>
       </c>
-      <c r="C10" t="s">
-        <v>69</v>
-      </c>
-      <c r="F10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C11" t="s">
-        <v>70</v>
-      </c>
-      <c r="F11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" t="s">
-        <v>89</v>
-      </c>
-      <c r="B12" t="s">
-        <v>154</v>
-      </c>
-      <c r="C12" t="s">
-        <v>71</v>
-      </c>
-      <c r="F12" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>153</v>
-      </c>
-      <c r="C13" t="s">
-        <v>72</v>
-      </c>
-      <c r="F13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" t="s">
-        <v>90</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="F62" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
         <v>158</v>
       </c>
-      <c r="C14" t="s">
-        <v>73</v>
-      </c>
-      <c r="F14" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="F63" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
         <v>159</v>
       </c>
-      <c r="C15" t="s">
-        <v>137</v>
-      </c>
-      <c r="F15" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="F64" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
         <v>160</v>
       </c>
-      <c r="C16" t="s">
-        <v>138</v>
-      </c>
-      <c r="F16" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="F65" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>161</v>
+      </c>
+      <c r="F66" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
         <v>162</v>
       </c>
-      <c r="C17" t="s">
-        <v>139</v>
-      </c>
-      <c r="F17" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" t="s">
-        <v>161</v>
-      </c>
-      <c r="C18" t="s">
-        <v>140</v>
-      </c>
-      <c r="F18" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" t="s">
-        <v>141</v>
-      </c>
-      <c r="F19" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" t="s">
-        <v>152</v>
-      </c>
-      <c r="C20" t="s">
-        <v>142</v>
-      </c>
-      <c r="F20" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="F67" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>163</v>
+      </c>
+      <c r="F68" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
         <v>164</v>
       </c>
-      <c r="C21" t="s">
-        <v>143</v>
-      </c>
-      <c r="F21" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="F69" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
         <v>165</v>
       </c>
-      <c r="C22" t="s">
-        <v>144</v>
-      </c>
-      <c r="F22" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" t="s">
-        <v>163</v>
-      </c>
-      <c r="F23" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="F70" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
         <v>166</v>
       </c>
-      <c r="F24" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25" t="s">
-        <v>164</v>
-      </c>
-      <c r="F25" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="F71" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
         <v>167</v>
       </c>
-      <c r="F26" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27" t="s">
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
         <v>169</v>
       </c>
-      <c r="F27" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" t="s">
-        <v>37</v>
-      </c>
-      <c r="B28" t="s">
-        <v>168</v>
-      </c>
-      <c r="F28" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="B29" t="s">
-        <v>166</v>
-      </c>
-      <c r="F29" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="B30" t="s">
-        <v>178</v>
-      </c>
-      <c r="F30" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="B31" t="s">
-        <v>170</v>
-      </c>
-      <c r="F31" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="B32" t="s">
-        <v>175</v>
-      </c>
-      <c r="F32" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6">
-      <c r="B33" t="s">
-        <v>174</v>
-      </c>
-      <c r="F33" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6">
-      <c r="B34" t="s">
-        <v>171</v>
-      </c>
-      <c r="F34" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6">
-      <c r="B35" t="s">
-        <v>172</v>
-      </c>
-      <c r="F35" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6">
-      <c r="B36" t="s">
-        <v>173</v>
-      </c>
-      <c r="F36" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6">
-      <c r="B37" t="s">
-        <v>38</v>
-      </c>
-      <c r="F37" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6">
-      <c r="B38" t="s">
-        <v>39</v>
-      </c>
-      <c r="F38" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6">
-      <c r="B39" t="s">
-        <v>40</v>
-      </c>
-      <c r="F39" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6">
-      <c r="B40" t="s">
-        <v>41</v>
-      </c>
-      <c r="F40" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6">
-      <c r="B41" t="s">
-        <v>42</v>
-      </c>
-      <c r="F41" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6">
-      <c r="B42" t="s">
-        <v>43</v>
-      </c>
-      <c r="F42" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6">
-      <c r="B43" t="s">
-        <v>44</v>
-      </c>
-      <c r="F43" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6">
-      <c r="B44" t="s">
-        <v>45</v>
-      </c>
-      <c r="F44" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6">
-      <c r="B45" t="s">
-        <v>54</v>
-      </c>
-      <c r="F45" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6">
-      <c r="B46" t="s">
-        <v>53</v>
-      </c>
-      <c r="F46" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6">
-      <c r="B47" t="s">
-        <v>55</v>
-      </c>
-      <c r="F47" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6">
-      <c r="B48" t="s">
-        <v>56</v>
-      </c>
-      <c r="F48" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6">
-      <c r="B49" t="s">
-        <v>57</v>
-      </c>
-      <c r="F49" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6">
-      <c r="B50" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6">
-      <c r="B51" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6">
-      <c r="B52" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6">
-      <c r="B53" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6">
-      <c r="B54" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6">
-      <c r="B55" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6">
-      <c r="B56" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="57" spans="2:6">
-      <c r="B57" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="58" spans="2:6">
-      <c r="B58" t="s">
-        <v>66</v>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>284</v>
       </c>
     </row>
   </sheetData>
